--- a/admin/controls/static/datos.xlsx
+++ b/admin/controls/static/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U221"/>
+  <dimension ref="A1:U297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,7 +666,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -714,12 +714,24 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>Rápido</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Tal vez</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>send</t>
@@ -753,7 +765,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -801,12 +813,24 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>send</t>
@@ -840,7 +864,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -888,12 +912,24 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Tal vez</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr">
         <is>
           <t>send</t>
@@ -1026,7 +1062,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1074,12 +1110,24 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Tal vez</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr">
         <is>
           <t>send</t>
@@ -1113,7 +1161,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1161,12 +1209,24 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr">
         <is>
           <t>send</t>
@@ -1299,7 +1359,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1347,12 +1407,24 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr">
         <is>
           <t>send</t>
@@ -1386,7 +1458,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1434,12 +1506,24 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Tal vez</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>send</t>
@@ -1473,7 +1557,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>by_call</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1521,12 +1605,24 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+          <t>Rápido</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Tal vez</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr">
         <is>
           <t>send</t>
@@ -10189,12 +10285,24 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="U112" t="inlineStr">
         <is>
           <t>pending</t>
@@ -17541,12 +17649,24 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr"/>
-      <c r="T196" t="inlineStr"/>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Tal vez</t>
+        </is>
+      </c>
       <c r="U196" t="inlineStr">
         <is>
           <t>send</t>
@@ -18672,12 +18792,24 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr"/>
+          <t>Rápido</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="U209" t="inlineStr">
         <is>
           <t>send</t>
@@ -19012,7 +19144,11 @@
           <t>C21</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>SANDOVAL GALVIS MARIA YOLANDA</t>
+        </is>
+      </c>
       <c r="G214" t="inlineStr">
         <is>
           <t>finished</t>
@@ -19023,8 +19159,16 @@
           <t>Crédito</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>pago</t>
+        </is>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>2023-11-16T13:01:15Z</t>
@@ -19035,7 +19179,11 @@
           <t>2023-11-16T13:27:45Z</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:11:05Z</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr">
         <is>
           <t>2023-11-16</t>
@@ -19044,7 +19192,11 @@
       <c r="O214" t="n">
         <v>4</v>
       </c>
-      <c r="P214" t="inlineStr"/>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
       <c r="Q214" t="inlineStr">
         <is>
           <t>empty</t>
@@ -19055,7 +19207,7 @@
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>send</t>
         </is>
       </c>
     </row>
@@ -19538,10 +19690,14 @@
           <t>B72</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ROJAS BOLANOS LUIS ALFONSO</t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -19549,22 +19705,44 @@
           <t>Caja</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>retiro</t>
+        </is>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>2023-11-16T14:36:59Z</t>
         </is>
       </c>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:11:07Z</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:12:03Z</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
+      <c r="O220" t="n">
+        <v>5</v>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
       <c r="Q220" t="inlineStr">
         <is>
           <t>empty</t>
@@ -19575,7 +19753,7 @@
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>send</t>
         </is>
       </c>
     </row>
@@ -19599,7 +19777,11 @@
           <t>O10</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>CAMILA ESTEFANI PARADA PINEDA</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr">
         <is>
           <t>finished</t>
@@ -19610,8 +19792,16 @@
           <t>Otros</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Asesoria para crédito hipotecario</t>
+        </is>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>2023-11-16T15:05:07Z</t>
@@ -19622,7 +19812,11 @@
           <t>2023-11-16T15:05:12Z</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:15:21Z</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr">
         <is>
           <t>2023-11-16</t>
@@ -19631,7 +19825,11 @@
       <c r="O221" t="n">
         <v>2</v>
       </c>
-      <c r="P221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
       <c r="Q221" t="inlineStr">
         <is>
           <t>empty</t>
@@ -19642,7 +19840,6275 @@
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="inlineStr">
         <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1051211728</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3103346797</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>B64</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>RIOS MATTA JEISSON FERNANDO</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>pago credito y aportes</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:22:53Z</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:24:09Z</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:24:33Z</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="O222" t="n">
+        <v>1</v>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
           <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>40022336</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3123099217</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:27:55Z</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>2023-11-16T16:22:02Z</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="O223" t="n">
+        <v>2</v>
+      </c>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4003052</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3103017266</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>B65</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>AYALA TORRES SANDRA MAGALY</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>pago aportes y cooviahorro</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:37:59Z</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:39:51Z</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>2023-11-16T15:40:15Z</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="O224" t="n">
+        <v>1</v>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>40042619</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3132309928</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>B66</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LARROTTA IZARIZA GLADYS MARLEN</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>pago aportes</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>2023-11-16T16:23:01Z</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>2023-11-17T08:09:37Z</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>2023-11-17T08:11:13Z</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="O225" t="n">
+        <v>1</v>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1028020234</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3123168940</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>B67</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>BAUTE RUIZ JENNY ALEXANDRA</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>desembolso credito</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>2023-11-17T08:01:09Z</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>2023-11-17T08:11:15Z</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>2023-11-17T08:11:39Z</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O226" t="n">
+        <v>1</v>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1057919961</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3203908231</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>B68</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>EDWIN FERNANDO MORENO JIMENEZ</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>DESEMBOLSO CREDITO</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:11:46Z</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:14:18Z</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:15:13Z</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O227" t="n">
+        <v>1</v>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>10262334</v>
+      </c>
+      <c r="C228" t="n">
+        <v>311501614</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>diana carolina</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>proceso de afiliación y crédito</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:25:32Z</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:13:06Z</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:13:36Z</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O228" t="n">
+        <v>4</v>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>33378877</v>
+      </c>
+      <c r="C229" t="n">
+        <v>3124790275</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>O11</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>SANDRA OSIPINA</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Asesoria para credito hipotecario</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:32:52Z</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:44:06Z</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:44:29Z</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O229" t="n">
+        <v>2</v>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6756142</v>
+      </c>
+      <c r="C230" t="n">
+        <v>312526928</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>B69</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>RINCON VELANDIA JAIRO ENRIQUE</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>pago cuotas credito</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:47:35Z</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:48:38Z</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>2023-11-17T09:49:03Z</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O230" t="n">
+        <v>1</v>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1049608087</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3105656232</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>B70</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>DIEGO BERMUDEZ</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Pago cuota credito</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:14:26Z</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:15:31Z</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:15:52Z</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O231" t="n">
+        <v>1</v>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>51619573</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3158274993</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>B73</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>NUNEZ VARON JAIDIVI</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>PAGO DE APORTES</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:12:03Z</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:12:05Z</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:12:29Z</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O232" t="n">
+        <v>5</v>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4192420</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3102534022</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>B71</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>VASQUEZ JULIAN ANDRES</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>PAGO SALDO DE CUOTA</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:19:13Z</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:20:10Z</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:20:45Z</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O233" t="n">
+        <v>1</v>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>7179760</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3102733418</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>B72</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>EDUAR JIMENEZ</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>RETIRO COOVIAHORRO</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:42:32Z</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:43:41Z</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:44:05Z</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O234" t="n">
+        <v>1</v>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>30393775</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3165219055</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>SALAZAR GIRALDO PAULA MARCELA</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Ahorro</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>RETIRO</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>2023-11-17T10:58:49Z</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:12:35Z</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:13:03Z</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O235" t="n">
+        <v>4</v>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>52243711</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3228564772</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>B74</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>OTALORA BERNAL YENNY MARCELA</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:39:24Z</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:53:17Z</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:53:29Z</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O236" t="n">
+        <v>5</v>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1096482859</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3158812826</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>B73</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ROA BARON MARTHA ELISA</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>pago cuota credito</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2023-11-17T11:58:58Z</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:41:33Z</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:41:48Z</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O237" t="n">
+        <v>1</v>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>19195588</v>
+      </c>
+      <c r="C238" t="n">
+        <v>312385721</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>DURAN MORALES RODOLFO</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:42:10Z</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:54:05Z</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:54:38Z</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O238" t="n">
+        <v>2</v>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>1033747211</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7184961</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3123339542</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>B75</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>QUINTERO PULIDO WILLIAM GUILLERMO</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>RETIRO</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:47:08Z</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:53:32Z</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:53:58Z</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O239" t="n">
+        <v>5</v>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>1022349157</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr"/>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>79724826</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3194366010</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>O10</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>2023-11-17T12:51:54Z</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:12:48Z</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O240" t="n">
+        <v>2</v>
+      </c>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>52128661</v>
+      </c>
+      <c r="C241" t="n">
+        <v>322413779</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>SIERRA SALAZAR MARIA ISABEL</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:06:59Z</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:12:52Z</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:19:41Z</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O241" t="n">
+        <v>2</v>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>1022349157</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1002394275</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3232449985</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>B74</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:41:07Z</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:43:46Z</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O242" t="n">
+        <v>1</v>
+      </c>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1022931425</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3124450918</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>FAJARDO BARRERA FENNY YINETH</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>solicitud de credito</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>2023-11-17T13:59:15Z</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:29:51Z</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:30:16Z</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O243" t="n">
+        <v>4</v>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1020769915</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3133015069</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>B76</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>NEIRA ORTIZ CRISTIAN CAMILO</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>retiro en efectivo</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:22:43Z</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:26:43Z</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:29:49Z</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O244" t="n">
+        <v>5</v>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1019027150</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3158042376</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>B77</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ CORTES WILLMER MILLER</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>RETIRO</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:23:07Z</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:16:36Z</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:17:51Z</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O245" t="n">
+        <v>5</v>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1049618095</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3053969642</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>B75</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>GARCIA CASTRO LEYDI ESPERANZA</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>pago aportes</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:32:11Z</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:33:29Z</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:33:37Z</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O246" t="n">
+        <v>1</v>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>40015915</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3163610620</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>O12</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>BERTILDA RODRIGUZ</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>ASESORIA CREDITO Y VINCULACION</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>2023-11-17T14:35:50Z</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:17:24Z</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:18:22Z</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O247" t="n">
+        <v>2</v>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>1099544827</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>40040233</v>
+      </c>
+      <c r="C248" t="n">
+        <v>310348595</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>B76</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>CUERVO GARCIA DEILSI</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>abono a capital</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:11:26Z</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:12:34Z</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:13:39Z</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O248" t="n">
+        <v>1</v>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>40044650</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3133586871</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>B77</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>IRMA ROCIO CABANZO</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>CONSIGNACION CTA AHORROS</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:13:13Z</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:15:15Z</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>2023-11-17T15:16:26Z</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="O249" t="n">
+        <v>1</v>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1002329927</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3046277840</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>O13</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>erika natalia abril</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>afiliacion y solicitud credito</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>2023-11-18T08:58:55Z</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>2023-11-18T09:48:01Z</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>2023-11-18T09:48:21Z</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O250" t="n">
+        <v>2</v>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>40033760</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3213820661</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>O14</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>flor estella tibacuy</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>asesoramiento para vinculacion y credito</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>2023-11-18T09:07:35Z</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:48:13Z</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:49:46Z</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O251" t="n">
+        <v>2</v>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>1099544827</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1002329927</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3046277840</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>B78</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>ERIKA ABRIL</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>PAGO PRIMER APORTE AFILIACION</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>2023-11-18T09:51:00Z</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>2023-11-18T09:51:33Z</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>2023-11-18T09:52:08Z</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O252" t="n">
+        <v>1</v>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>149626118</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3133358580</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>B79</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>FLOR MARINA MEDINA MEDINA</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>retiro cta ahorros</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:02:53Z</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:02:57Z</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:03:59Z</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O253" t="n">
+        <v>1</v>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1002395406</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3132109741</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>O15</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>DIANA MEDINA</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>FIRMA CREDITO</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:03:23Z</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:53:28Z</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:55:01Z</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O254" t="n">
+        <v>2</v>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>1099544827</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>40027644</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3133940937</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>O16</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ROSA DELIA PULIDO</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>RADICACION CARTA DE RETIRO</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:14:47Z</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:16:30Z</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:16:52Z</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O255" t="n">
+        <v>2</v>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr"/>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>40011529</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3193170398</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>B80</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>RUIZ  BLANCA MIRIAM</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>pago aportes</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:17:39Z</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:18:46Z</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:19:05Z</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O256" t="n">
+        <v>1</v>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1049622329</v>
+      </c>
+      <c r="C257" t="n">
+        <v>321324992</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>B81</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>ADRIANA BEATRIZ ESPITIA</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>DESEMBOSLO CREDITO</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:19:20Z</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:21:29Z</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:40:37Z</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O257" t="n">
+        <v>1</v>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>24016305</v>
+      </c>
+      <c r="C258" t="n">
+        <v>320320066</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>O17</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:27:06Z</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:51:36Z</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O258" t="n">
+        <v>2</v>
+      </c>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>149626118</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3133358580</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>B82</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>FLOR MARINA MEDINA MEDINA</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>cuota credito</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:27:45Z</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:40:41Z</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:43:08Z</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O259" t="n">
+        <v>1</v>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1012317607</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3124596483</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>O18</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:42:14Z</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:55:57Z</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O260" t="n">
+        <v>2</v>
+      </c>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1002395406</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3132109741</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>B83</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>sandra paola medina</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>pago primer aporte</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:47:51Z</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:47:59Z</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:48:49Z</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O261" t="n">
+        <v>1</v>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1049620423</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3146300834</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>O19</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>SERGIO SALINAS</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>RADICACION DOCUMENTACION CREDITO</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:49:22Z</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:55:09Z</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:55:43Z</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O262" t="n">
+        <v>2</v>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>1099544827</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>674580</v>
+      </c>
+      <c r="C263" t="n">
+        <v>31427315</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>O20</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:52:55Z</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:55:45Z</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O263" t="n">
+        <v>2</v>
+      </c>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>80467441</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3225376026</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>B84</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ SASTOQUE EDWIN EDUARDO</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>pago cuota credito</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:56:04Z</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:57:10Z</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:58:57Z</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O264" t="n">
+        <v>1</v>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1012317607</v>
+      </c>
+      <c r="C265" t="n">
+        <v>312459643</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>O21</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>JOHANA ALEXANDRA GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Asesoria para credito</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>2023-11-18T10:58:30Z</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>2023-11-18T11:02:08Z</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>2023-11-18T11:05:07Z</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="O265" t="n">
+        <v>2</v>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr"/>
+      <c r="S265" t="inlineStr"/>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>13254516</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3132309928</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>IBARRA IBARRA JOSE ALBERTO</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>solicitud liquidacion cooviahorro</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:12:45Z</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:14:04Z</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:14:29Z</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O266" t="n">
+        <v>2</v>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>675309</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3214</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>B85</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>GUILLERMO AMAR RUEDA</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>RETIRO CUENTA</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:39:44Z</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:39:51Z</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:41:12Z</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O267" t="n">
+        <v>1</v>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1018448205</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3102218060</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>B78</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>RINCON BARRERA MARIA DEL PILAR</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>retiro</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>2023-11-20T08:50:59Z</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:03:40Z</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:04:07Z</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O268" t="n">
+        <v>5</v>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1016076350</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3104784937</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>B79</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>BALAGUERA BULA YULI ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>ordenes de pago</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>2023-11-20T09:13:46Z</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:04:11Z</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:04:36Z</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O269" t="n">
+        <v>5</v>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>392987</v>
+      </c>
+      <c r="C270" t="n">
+        <v>313230998</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>B86</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>ALONSO GOMEZ</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>PAGO CREDITO Y APORTES</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>2023-11-20T09:37:50Z</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>2023-11-20T09:37:54Z</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>2023-11-20T09:38:08Z</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O270" t="n">
+        <v>1</v>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1018412589</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3003643936</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>2023-11-20T09:42:24Z</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr"/>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>41649164</v>
+      </c>
+      <c r="C272" t="n">
+        <v>319261198</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>B80</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>TRIVINO BELTRAN ELVIRA</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>pagos</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>2023-11-20T09:53:04Z</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:04:38Z</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:04:55Z</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O272" t="n">
+        <v>5</v>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr"/>
+      <c r="S272" t="inlineStr"/>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>41430756</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3107710891</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:14:34Z</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr"/>
+      <c r="S273" t="inlineStr"/>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>52249791</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3107796522</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>B81</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>HERNANDEZ BALDRICH MIRNA PATRICIA</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>PAGO CREDITO</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:29:47Z</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:36:41Z</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:44:05Z</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O274" t="n">
+        <v>5</v>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>19192217</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3158582228</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>B82</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>REYES MANOSALVA JULIO EDILBERTO</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>PAGO</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:32:08Z</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:44:07Z</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:44:24Z</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O275" t="n">
+        <v>5</v>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr"/>
+      <c r="S275" t="inlineStr"/>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>417762</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3115612023</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>B83</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>PRUEBA</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>PRUEBA</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:33:08Z</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:44:26Z</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:44:43Z</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O276" t="n">
+        <v>5</v>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr"/>
+      <c r="S276" t="inlineStr"/>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2033574</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3208159000</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:44:24Z</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>40011260</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3105853543</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>MARIA ESTELLA SIERRA AGUILAR</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>LEVANTAMIENTO DE HIPOTECA</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:52:19Z</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:59:20Z</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:59:58Z</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O278" t="n">
+        <v>2</v>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>1099544827</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Muy rápido</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1002395406</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3132109741</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>MEDINA MEDINA SANDRA PAOLA</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>ASOCIADA TRAE DOCUMENTACION PARA RADICAR CREDITO</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:55:42Z</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:00:09Z</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:01:25Z</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O279" t="n">
+        <v>2</v>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>1099544827</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>51659385</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3148558905</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>2023-11-20T10:58:14Z</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr"/>
+      <c r="S280" t="inlineStr"/>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>52105999</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3152923716</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>F10</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:05:04Z</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr"/>
+      <c r="S281" t="inlineStr"/>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>30706515</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3123773273</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:30:01Z</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr"/>
+      <c r="S282" t="inlineStr"/>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>52437852</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3165320056</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>B84</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ZORRO CARDONA DIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>ANTICIPO</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:33:07Z</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:44:44Z</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:45:04Z</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O283" t="n">
+        <v>5</v>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>79449762</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3102255270</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>2023-11-20T11:56:58Z</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr"/>
+      <c r="S284" t="inlineStr"/>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>52728598</v>
+      </c>
+      <c r="C285" t="n">
+        <v>52728598</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>B85</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>TORRES BERMUDEZ ARGENIS JOHANNA</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>RETIRO</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>2023-11-20T12:29:55Z</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>2023-11-20T13:53:00Z</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:03:35Z</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O285" t="n">
+        <v>5</v>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr"/>
+      <c r="S285" t="inlineStr"/>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>19410548</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3157714456</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>F13</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>2023-11-20T12:38:53Z</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr"/>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>41668144</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3163994175</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>2023-11-20T12:39:43Z</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>51600750</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3103446343</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>F15</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>2023-11-20T12:52:23Z</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr"/>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr"/>
+      <c r="S288" t="inlineStr"/>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>52366244</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3142111867</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>B86</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>VARGAS QUINCHE ANGELICA</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>ABONO CUENTA DE AHORROS</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>2023-11-20T13:48:33Z</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:03:37Z</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:04:04Z</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O289" t="n">
+        <v>5</v>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>1014199690</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr"/>
+      <c r="S289" t="inlineStr"/>
+      <c r="T289" t="inlineStr"/>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4036918</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3217399431</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>C26</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:08:00Z</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr"/>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>35467829</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3115166528</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>F16</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:36:14Z</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr"/>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>13254516</v>
+      </c>
+      <c r="C292" t="n">
+        <v>3214180422</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>B87</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>RUBIO SUAREZ LINA MARIA</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>PAGO CUOTA Y APORTES</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:41:13Z</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>2023-11-20T15:26:37Z</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>2023-11-20T15:29:18Z</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O292" t="n">
+        <v>1</v>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr"/>
+      <c r="S292" t="inlineStr"/>
+      <c r="T292" t="inlineStr"/>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>79447610</v>
+      </c>
+      <c r="C293" t="n">
+        <v>3214367836</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>F17</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Afiliación</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:44:23Z</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr"/>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>52243711</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3228564772</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>B87</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:48:05Z</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>2023-11-20T15:08:53Z</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O294" t="n">
+        <v>5</v>
+      </c>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr"/>
+      <c r="S294" t="inlineStr"/>
+      <c r="T294" t="inlineStr"/>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>52243711</v>
+      </c>
+      <c r="C295" t="n">
+        <v>3228564772</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>B88</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>2023-11-20T14:48:34Z</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr"/>
+      <c r="S295" t="inlineStr"/>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>4097528</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3232450526</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>B88</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>2023-11-20T15:26:08Z</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>2023-11-20T15:29:27Z</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O296" t="n">
+        <v>1</v>
+      </c>
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr"/>
+      <c r="S296" t="inlineStr"/>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>40041482</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3142826215</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ELIANA VERA</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>ASESORIA PARA CREDITO</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>2023-11-20T15:26:41Z</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>2023-11-20T16:37:25Z</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>2023-11-20T16:37:45Z</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="O297" t="n">
+        <v>2</v>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>1049608012</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr"/>
+      <c r="S297" t="inlineStr"/>
+      <c r="T297" t="inlineStr"/>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>send</t>
         </is>
       </c>
     </row>
